--- a/2017-07-05_Helicobacter_pylori_Nicaragua/Nicaragua_Results.xlsx
+++ b/2017-07-05_Helicobacter_pylori_Nicaragua/Nicaragua_Results.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="fit_results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -923,7 +923,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:J4"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
